--- a/簿记/Manufacturing Account/Year End 2019.xlsx
+++ b/簿记/Manufacturing Account/Year End 2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melvinchia/Documents/involution/簿记/Manufacturing Account/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15AE1CA-3817-1C48-B343-F61B5F9988C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF85BCD8-919D-6249-B7B3-869CFF903618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{EFECC91C-84A3-7F4C-8C92-AE3046834754}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{EFECC91C-84A3-7F4C-8C92-AE3046834754}"/>
   </bookViews>
   <sheets>
     <sheet name="Manufacturing Account" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t>RM</t>
   </si>
@@ -233,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -269,6 +269,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -587,10 +590,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -606,7 +609,7 @@
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
@@ -614,7 +617,7 @@
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
+      <c r="D2" s="10"/>
     </row>
     <row r="3" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
@@ -622,9 +625,13 @@
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-    </row>
-    <row r="4" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+    </row>
     <row r="5" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
@@ -633,9 +640,7 @@
       <c r="C5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>0</v>
-      </c>
+      <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
@@ -650,8 +655,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7">
+      <c r="C7" s="7">
         <v>43000</v>
       </c>
     </row>
@@ -672,292 +676,273 @@
       <c r="B9" s="8">
         <v>-3400</v>
       </c>
-      <c r="C9" s="9">
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="9">
         <f>B8+B9</f>
         <v>120000</v>
       </c>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="C10" s="9"/>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8">
+      <c r="B11" s="8">
         <v>3000</v>
       </c>
-      <c r="D10" s="8">
-        <f>C9+C10</f>
+      <c r="C11" s="8">
+        <f>B10+B11</f>
         <v>123000</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7">
-        <f>D7+D10</f>
+    <row r="12" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7">
+        <f>C7+C11</f>
         <v>166000</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+    <row r="13" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8">
+      <c r="B13" s="7"/>
+      <c r="C13" s="8">
         <v>-42000</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7">
-        <f>D11+D12</f>
+    <row r="14" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7">
+        <f>C12+C13</f>
         <v>124000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+    <row r="15" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8">
+      <c r="B15" s="7"/>
+      <c r="C15" s="8">
         <v>-5400</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7">
-        <f>D13+D14</f>
+    <row r="16" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7">
+        <f>C14+C15</f>
         <v>118600</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+    <row r="17" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-    </row>
-    <row r="17" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="7">
+    </row>
+    <row r="18" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7">
         <v>18000</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
+    <row r="19" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-    </row>
-    <row r="19" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
-      <c r="D19" s="8">
+    </row>
+    <row r="20" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="8">
         <v>3000</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
+    <row r="21" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7">
-        <f>D15+D17+D19</f>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7">
+        <f>C16+C18+C20</f>
         <v>139600</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
+    <row r="22" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-    </row>
-    <row r="22" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7">
+      <c r="B23" s="7">
         <f>(126000-24000)*15%</f>
         <v>15300</v>
       </c>
-      <c r="D22" s="7"/>
-    </row>
-    <row r="23" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+      <c r="C23" s="7"/>
+    </row>
+    <row r="24" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7">
+      <c r="B24" s="7">
         <f>12000*3/5</f>
         <v>7200</v>
       </c>
-      <c r="D23" s="7"/>
-    </row>
-    <row r="24" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7">
-        <v>8800</v>
-      </c>
-      <c r="D24" s="7"/>
+      <c r="C24" s="7"/>
     </row>
     <row r="25" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7">
-        <v>3800</v>
-      </c>
-      <c r="D25" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="B25" s="7">
+        <v>8800</v>
+      </c>
+      <c r="C25" s="7"/>
     </row>
     <row r="26" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7">
-        <v>12000</v>
-      </c>
-      <c r="D26" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="B26" s="7">
+        <v>3800</v>
+      </c>
+      <c r="C26" s="7"/>
     </row>
     <row r="27" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="7">
+        <v>12000</v>
+      </c>
+      <c r="C27" s="7"/>
+    </row>
+    <row r="28" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7">
+      <c r="B28" s="7">
         <f>8500 - 1600</f>
         <v>6900</v>
       </c>
-      <c r="D27" s="7"/>
-    </row>
-    <row r="28" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
+      <c r="C28" s="7"/>
+    </row>
+    <row r="29" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7">
+      <c r="B29" s="7">
         <f>60000*2/3</f>
         <v>40000</v>
       </c>
-      <c r="D28" s="7"/>
-    </row>
-    <row r="29" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
+      <c r="C29" s="7"/>
+    </row>
+    <row r="30" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="8">
+      <c r="B30" s="8">
         <f>6500*3/5</f>
         <v>3900</v>
       </c>
-      <c r="D29" s="8">
-        <f>SUM(C22:C29)</f>
+      <c r="C30" s="8">
+        <f>SUM(B23:B30)</f>
         <v>97900</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="3"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7">
-        <f>D20+D29</f>
+    <row r="31" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7">
+        <f>C21+C30</f>
         <v>237500</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
+    <row r="32" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="8">
+      <c r="B32" s="7"/>
+      <c r="C32" s="8">
         <v>22500</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="3"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7">
-        <f>D30+D31</f>
+    <row r="33" spans="1:3" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7">
+        <f>C31+C32</f>
         <v>260000</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
+    <row r="34" spans="1:3" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="8">
+      <c r="B34" s="7"/>
+      <c r="C34" s="8">
         <v>-21000</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
+    <row r="35" spans="1:3" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7">
-        <f>D32+D33</f>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7">
+        <f>C33+C34</f>
         <v>239000</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="10" t="s">
+    <row r="36" spans="1:3" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="8">
-        <f>D36-D34</f>
+      <c r="B36" s="7"/>
+      <c r="C36" s="8">
+        <f>C37-C35</f>
         <v>11000</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="5" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
+    <row r="37" spans="1:3" s="5" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="11">
+      <c r="B37" s="7"/>
+      <c r="C37" s="11">
         <v>250000</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:3" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
+  <mergeCells count="4">
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
   </mergeCells>
+  <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="98" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -967,7 +952,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{278E1586-06CE-7F42-82DA-4C0EF673A18D}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
